--- a/project_implementation/csvs/40m good for uni a/uni_a_40m_euc_k5[PASS]/k_ates.xlsx
+++ b/project_implementation/csvs/40m good for uni a/uni_a_40m_euc_k5[PASS]/k_ates.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\uni_a_40m_euc_k5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\40m good for uni a\uni_a_40m_euc_k5[PASS]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{34093F5A-6C0D-41FA-BD23-DACA2990AED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC69DA-7313-4DAF-BAB3-1660F7B16DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_ates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1075,7 +1088,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1910,11 +1923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I354"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="I356" sqref="I356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10331,6 +10344,12 @@
         <v>82.285714285714292</v>
       </c>
     </row>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I355">
+        <f>COUNTIF(I1:I350,"&lt;=6")*100/COUNT(I1:I350)</f>
+        <v>69.428571428571431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_implementation/csvs/40m good for uni a/uni_a_40m_euc_k5[PASS]/k_ates.xlsx
+++ b/project_implementation/csvs/40m good for uni a/uni_a_40m_euc_k5[PASS]/k_ates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\40m good for uni a\uni_a_40m_euc_k5[PASS]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC69DA-7313-4DAF-BAB3-1660F7B16DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29808C79-F192-4F00-A2BA-CE9F52CA8E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I355"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="I356" sqref="I356"/>
+      <selection activeCell="H353" sqref="H353:M361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10332,22 +10332,220 @@
         <v>5.9112282712372402</v>
       </c>
     </row>
-    <row r="353" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H353">
+        <v>1</v>
+      </c>
       <c r="I353">
         <f>COUNTIF(I1:I350,"&lt;=1")*100/COUNT(I1:I350)</f>
         <v>11.428571428571429</v>
       </c>
-    </row>
-    <row r="354" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="J353">
+        <f>COUNTIF(I1:I350,"&lt;=1")</f>
+        <v>40</v>
+      </c>
+      <c r="K353">
+        <v>350</v>
+      </c>
+      <c r="L353">
+        <f>J353*100/K353</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="M353">
+        <f>ROUND(I353,2)</f>
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="354" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H354">
+        <v>2</v>
+      </c>
       <c r="I354">
+        <f>COUNTIF(I1:I350,"&lt;=2")*100/COUNT(I1:I350)</f>
+        <v>39.142857142857146</v>
+      </c>
+      <c r="J354">
+        <f>COUNTIF(I1:I350,"&lt;=2")</f>
+        <v>137</v>
+      </c>
+      <c r="K354">
+        <v>350</v>
+      </c>
+      <c r="L354">
+        <f t="shared" ref="L354:L361" si="6">J354*100/K354</f>
+        <v>39.142857142857146</v>
+      </c>
+      <c r="M354">
+        <f t="shared" ref="M354:M361" si="7">ROUND(I354,2)</f>
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="355" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H355">
+        <v>3</v>
+      </c>
+      <c r="I355">
+        <f>COUNTIF(I1:I350,"&lt;=3")*100/COUNT(I1:I350)</f>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="J355">
+        <f>COUNTIF(I1:I350,"&lt;=3")</f>
+        <v>180</v>
+      </c>
+      <c r="K355">
+        <v>350</v>
+      </c>
+      <c r="L355">
+        <f t="shared" si="6"/>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="M355">
+        <f t="shared" si="7"/>
+        <v>51.43</v>
+      </c>
+    </row>
+    <row r="356" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H356">
+        <v>5</v>
+      </c>
+      <c r="I356">
+        <f>COUNTIF(I1:I350,"&lt;=5")*100/COUNT(I1:I350)</f>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="J356">
+        <f>COUNTIF(I1:I350,"&lt;=5")</f>
+        <v>225</v>
+      </c>
+      <c r="K356">
+        <v>350</v>
+      </c>
+      <c r="L356">
+        <f t="shared" si="6"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="M356">
+        <f t="shared" si="7"/>
+        <v>64.290000000000006</v>
+      </c>
+    </row>
+    <row r="357" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H357">
+        <v>7</v>
+      </c>
+      <c r="I357">
+        <f>COUNTIF(I1:I350,"&lt;=7")*100/COUNT(I1:I350)</f>
+        <v>74.285714285714292</v>
+      </c>
+      <c r="J357">
+        <f>COUNTIF(I1:I350,"&lt;=7")</f>
+        <v>260</v>
+      </c>
+      <c r="K357">
+        <v>350</v>
+      </c>
+      <c r="L357">
+        <f t="shared" si="6"/>
+        <v>74.285714285714292</v>
+      </c>
+      <c r="M357">
+        <f t="shared" si="7"/>
+        <v>74.290000000000006</v>
+      </c>
+    </row>
+    <row r="358" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H358">
+        <v>10</v>
+      </c>
+      <c r="I358">
         <f>COUNTIF(I1:I350,"&lt;=10")*100/COUNT(I1:I350)</f>
         <v>82.285714285714292</v>
       </c>
-    </row>
-    <row r="355" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I355">
-        <f>COUNTIF(I1:I350,"&lt;=6")*100/COUNT(I1:I350)</f>
-        <v>69.428571428571431</v>
+      <c r="J358">
+        <f>COUNTIF(I1:I350,"&lt;=10")</f>
+        <v>288</v>
+      </c>
+      <c r="K358">
+        <v>350</v>
+      </c>
+      <c r="L358">
+        <f t="shared" si="6"/>
+        <v>82.285714285714292</v>
+      </c>
+      <c r="M358">
+        <f t="shared" si="7"/>
+        <v>82.29</v>
+      </c>
+    </row>
+    <row r="359" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H359">
+        <v>13</v>
+      </c>
+      <c r="I359">
+        <f>COUNTIF(I1:I350,"&lt;=13")*100/COUNT(I1:I350)</f>
+        <v>87.714285714285708</v>
+      </c>
+      <c r="J359">
+        <f>COUNTIF(I1:I350,"&lt;=13")</f>
+        <v>307</v>
+      </c>
+      <c r="K359">
+        <v>350</v>
+      </c>
+      <c r="L359">
+        <f t="shared" si="6"/>
+        <v>87.714285714285708</v>
+      </c>
+      <c r="M359">
+        <f t="shared" si="7"/>
+        <v>87.71</v>
+      </c>
+    </row>
+    <row r="360" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H360">
+        <v>15</v>
+      </c>
+      <c r="I360">
+        <f>COUNTIF(I1:I350,"&lt;=15")*100/COUNT(I1:I350)</f>
+        <v>92.285714285714292</v>
+      </c>
+      <c r="J360">
+        <f>COUNTIF(I1:I350,"&lt;=15")</f>
+        <v>323</v>
+      </c>
+      <c r="K360">
+        <v>350</v>
+      </c>
+      <c r="L360">
+        <f t="shared" si="6"/>
+        <v>92.285714285714292</v>
+      </c>
+      <c r="M360">
+        <f t="shared" si="7"/>
+        <v>92.29</v>
+      </c>
+    </row>
+    <row r="361" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H361">
+        <v>17</v>
+      </c>
+      <c r="I361">
+        <f>COUNTIF(I1:I350,"&lt;=17")*100/COUNT(I1:I350)</f>
+        <v>92.571428571428569</v>
+      </c>
+      <c r="J361">
+        <f>COUNTIF(I1:I350,"&lt;=17")</f>
+        <v>324</v>
+      </c>
+      <c r="K361">
+        <v>350</v>
+      </c>
+      <c r="L361">
+        <f t="shared" si="6"/>
+        <v>92.571428571428569</v>
+      </c>
+      <c r="M361">
+        <f t="shared" si="7"/>
+        <v>92.57</v>
       </c>
     </row>
   </sheetData>
